--- a/output/discharge_results/miller_creek_discharge.xlsx
+++ b/output/discharge_results/miller_creek_discharge.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="csv_miller_creek_discharge" localSheetId="0">Sheet1!$A$1:$D$8</definedName>
+    <definedName name="csv_miller_creek_discharge" localSheetId="0">Sheet1!$A$1:$E$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>site</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>Miller Creek Pressure Transducer 1</t>
+  </si>
+  <si>
+    <t>sample_time</t>
+  </si>
+  <si>
+    <t>PT_value</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>value missing; maybe during battery replacement</t>
+  </si>
+  <si>
+    <t>** add 2nd axis and plot PT vals</t>
+  </si>
+  <si>
+    <t>PT value = 0, which is unrealistic given high flow. Deep ice present at PT location. Recall that discharge measurement location was taken downstream near outlet w/ ocean.</t>
   </si>
 </sst>
 </file>
@@ -87,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +141,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Miller Creek Discharge </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -163,11 +207,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Q_Discharge_cfs</c:v>
+                  <c:v>Staff_Plate_Height</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -204,16 +248,57 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.52085157168880858"/>
-                  <c:y val="2.6092715231788081E-2"/>
+                  <c:x val="-0.40786461067366581"/>
+                  <c:y val="-8.4588436862058913E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>y = 0.3103e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="30000"/>
+                      <a:t>0.0569x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>R² = 0.9306</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -244,23 +329,39 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.9190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.225999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -287,41 +388,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.9190000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.494</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.468</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.225999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDFA-49EF-850B-25C7108EE0D2}"/>
+              <c16:uniqueId val="{00000000-7FB3-4246-98F5-4924367268C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -333,30 +404,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319042928"/>
-        <c:axId val="319042512"/>
+        <c:axId val="1867073392"/>
+        <c:axId val="1867077136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319042928"/>
+        <c:axId val="1867073392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -377,14 +434,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Staff</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Discharge (cfs)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Gauge Height (ft)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -455,31 +507,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319042512"/>
+        <c:crossAx val="1867077136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319042512"/>
+        <c:axId val="1867077136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -500,14 +538,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Discharge</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Staff Gauge Height (ft)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (cfs)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -578,7 +616,548 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319042928"/>
+        <c:crossAx val="1867073392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Miller Creek</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Discharge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pressure Transducer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23945122484689413"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19598381452318461"/>
+          <c:y val="0.18560185185185185"/>
+          <c:w val="0.76079396325459314"/>
+          <c:h val="0.6847685185185185"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT_value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.36875503062117237"/>
+                  <c:y val="3.6620370370370373E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.9190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.225999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83A5-4267-91BE-F0E56724649A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1380018976"/>
+        <c:axId val="1380016064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1380018976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Discharge (cfs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380016064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1380016064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Pressure</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Transducer Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1111111111111112E-2"/>
+              <c:y val="0.14612277631962672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380018976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -667,6 +1246,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1183,20 +1802,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>957262</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1209,7 +2374,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1485,21 +2650,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1507,108 +2674,167 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>44120</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>9.9190000000000005</v>
+      </c>
+      <c r="F2">
         <v>0.52</v>
       </c>
-      <c r="D2">
-        <v>9.9190000000000005</v>
+      <c r="G2">
+        <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>44312</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E3">
+        <v>35.494</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>35.494</v>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>44372</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E4">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="F4">
         <v>0.4</v>
       </c>
-      <c r="D4">
-        <v>3.3839999999999999</v>
+      <c r="G4">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>44399</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F5">
         <v>0.41</v>
       </c>
-      <c r="D5">
-        <v>4.9000000000000004</v>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>44419</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E6">
+        <v>4.468</v>
+      </c>
+      <c r="F6">
         <v>0.42</v>
       </c>
-      <c r="D6">
-        <v>4.468</v>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>44453</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="E7">
+        <v>6.0670000000000002</v>
+      </c>
+      <c r="F7">
         <v>0.47</v>
       </c>
-      <c r="D7">
-        <v>6.0670000000000002</v>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>44695</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="E8">
+        <v>24.225999999999999</v>
+      </c>
+      <c r="F8">
         <v>0.84</v>
       </c>
-      <c r="D8">
-        <v>24.225999999999999</v>
+      <c r="G8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/discharge_results/miller_creek_discharge.xlsx
+++ b/output/discharge_results/miller_creek_discharge.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="csv_miller_creek_discharge" localSheetId="0">Sheet1!$A$1:$E$8</definedName>
+    <definedName name="csv_miller_creek_discharge" localSheetId="0">Sheet1!$A$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -207,7 +207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -331,7 +331,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -361,7 +361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -780,7 +780,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -863,7 +863,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -893,7 +893,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -907,10 +907,10 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.25</c:v>
@@ -1206,6 +1206,401 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.51659892697236376"/>
+                  <c:y val="-3.6942257217847788E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$4:$F$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$2,Sheet1!$H$4:$H$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.225999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3289-4BD3-8726-93CAF6CBF278}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1754149791"/>
+        <c:axId val="1754152703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1754149791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754152703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1754152703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754149791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1286,6 +1681,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1803,6 +2238,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2353,12 +3304,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -2375,6 +3326,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>766762</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2650,10 +3631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,12 +3642,12 @@
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2677,19 +3658,19 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2700,16 +3681,16 @@
         <v>0.5</v>
       </c>
       <c r="E2">
+        <v>0.52</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
         <v>9.9190000000000005</v>
       </c>
-      <c r="F2">
-        <v>0.52</v>
-      </c>
-      <c r="G2">
-        <v>0.02</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2720,16 +3701,16 @@
         <v>0.5625</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>35.494</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2740,16 +3721,16 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="H4">
         <v>3.3839999999999999</v>
       </c>
-      <c r="F4">
-        <v>0.4</v>
-      </c>
-      <c r="G4">
-        <v>0.01</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2760,19 +3741,19 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="E5">
+        <v>0.41</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F5">
-        <v>0.41</v>
-      </c>
-      <c r="G5">
-        <v>0.01</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2783,16 +3764,16 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="E6">
+        <v>0.42</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
         <v>4.468</v>
       </c>
-      <c r="F6">
-        <v>0.42</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2803,16 +3784,16 @@
         <v>0.3979166666666667</v>
       </c>
       <c r="E7">
+        <v>0.47</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="H7">
         <v>6.0670000000000002</v>
       </c>
-      <c r="F7">
-        <v>0.47</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2823,17 +3804,17 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="E8">
+        <v>0.84</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
         <v>24.225999999999999</v>
       </c>
-      <c r="F8">
-        <v>0.84</v>
-      </c>
-      <c r="G8">
-        <v>0.25</v>
-      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/discharge_results/miller_creek_discharge.xlsx
+++ b/output/discharge_results/miller_creek_discharge.xlsx
@@ -207,7 +207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -361,7 +361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1601,6 +1601,359 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staff_Plate_Height</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.42568263342082241"/>
+                  <c:y val="-0.41587489063867017"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-345F-495A-8BA7-D33AB4E0C5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1121821679"/>
+        <c:axId val="1121822095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1121821679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1121822095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1121822095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1121821679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1721,6 +2074,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2754,6 +3147,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3334,15 +4243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>766762</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3356,6 +4265,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>871537</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3633,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,11 +4596,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
         <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -3680,11 +4619,11 @@
       <c r="C2" s="2">
         <v>0.5</v>
       </c>
-      <c r="E2">
-        <v>0.52</v>
-      </c>
       <c r="F2">
         <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>0.52</v>
       </c>
       <c r="H2">
         <v>9.9190000000000005</v>
@@ -3700,7 +4639,7 @@
       <c r="C3" s="2">
         <v>0.5625</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
@@ -3720,11 +4659,11 @@
       <c r="C4" s="2">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E4">
-        <v>0.4</v>
-      </c>
       <c r="F4">
         <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
       </c>
       <c r="H4">
         <v>3.3839999999999999</v>
@@ -3740,11 +4679,11 @@
       <c r="C5" s="2">
         <v>0.41319444444444442</v>
       </c>
-      <c r="E5">
-        <v>0.41</v>
-      </c>
       <c r="F5">
         <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>0.41</v>
       </c>
       <c r="H5">
         <v>4.9000000000000004</v>
@@ -3763,11 +4702,11 @@
       <c r="C6" s="2">
         <v>0.51388888888888895</v>
       </c>
-      <c r="E6">
-        <v>0.42</v>
-      </c>
       <c r="F6">
         <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>0.42</v>
       </c>
       <c r="H6">
         <v>4.468</v>
@@ -3783,11 +4722,11 @@
       <c r="C7" s="2">
         <v>0.3979166666666667</v>
       </c>
-      <c r="E7">
-        <v>0.47</v>
-      </c>
       <c r="F7">
         <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>0.47</v>
       </c>
       <c r="H7">
         <v>6.0670000000000002</v>
@@ -3803,11 +4742,11 @@
       <c r="C8" s="2">
         <v>0.5083333333333333</v>
       </c>
-      <c r="E8">
-        <v>0.84</v>
-      </c>
       <c r="F8">
         <v>0.25</v>
+      </c>
+      <c r="G8">
+        <v>0.84</v>
       </c>
       <c r="H8">
         <v>24.225999999999999</v>
